--- a/DadosIQA.xlsx
+++ b/DadosIQA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Coliformes" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="pH" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="DBO" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="N" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Fosforo" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Temperatura" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Turbidez" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Residuos" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="OD" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Coliformes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="pH" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DBO" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="N" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Fosforo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Temperatura" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Turbidez" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Residuos" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="OD" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -96,7 +96,7 @@
     <numFmt numFmtId="168" formatCode="0.0E+0"/>
     <numFmt numFmtId="169" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,12 +141,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -170,16 +171,9 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -246,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,11 +277,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,7 +285,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,17 +373,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -441,11 +433,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -460,15 +451,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -479,7 +461,7 @@
             <c:numRef>
               <c:f>Coliformes!$A$2:$A$60</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0.997301204</c:v>
@@ -665,7 +647,7 @@
             <c:numRef>
               <c:f>Coliformes!$B$2:$B$60</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>96.46226</c:v>
@@ -849,11 +831,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67033330"/>
-        <c:axId val="99889782"/>
+        <c:axId val="99546736"/>
+        <c:axId val="40253650"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67033330"/>
+        <c:axId val="99546736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -878,17 +860,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -922,24 +906,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99889782"/>
+        <c:crossAx val="40253650"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="9"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99889782"/>
+        <c:axId val="40253650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -963,17 +946,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -1007,18 +992,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67033330"/>
+        <c:crossAx val="99546736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1058,17 +1042,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -1127,11 +1113,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -1146,15 +1131,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1439,11 +1415,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81252459"/>
-        <c:axId val="13098201"/>
+        <c:axId val="88129077"/>
+        <c:axId val="66393688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81252459"/>
+        <c:axId val="88129077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1468,17 +1444,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -1512,23 +1490,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13098201"/>
+        <c:crossAx val="66393688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13098201"/>
+        <c:axId val="66393688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,17 +1528,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -1595,18 +1574,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81252459"/>
+        <c:crossAx val="88129077"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1646,17 +1624,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -1683,7 +1663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OD!$C$2</c:f>
+              <c:f>OD!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1715,11 +1695,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -1734,15 +1713,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1751,7 +1721,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>OD!$B$3:$B$21</c:f>
+              <c:f>OD!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1817,7 +1787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OD!$C$3:$C$21</c:f>
+              <c:f>OD!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1883,11 +1853,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22330974"/>
-        <c:axId val="20347230"/>
+        <c:axId val="77515421"/>
+        <c:axId val="45518760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22330974"/>
+        <c:axId val="77515421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1921,23 +1891,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20347230"/>
+        <c:crossAx val="45518760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20347230"/>
+        <c:axId val="45518760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1971,18 +1940,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22330974"/>
+        <c:crossAx val="77515421"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2022,17 +1990,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -2080,11 +2050,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -2099,15 +2068,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2118,7 +2078,7 @@
             <c:numRef>
               <c:f>pH!$A$2:$A$86</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>1.979592</c:v>
@@ -2382,7 +2342,7 @@
             <c:numRef>
               <c:f>pH!$B$2:$B$86</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0.816327</c:v>
@@ -2644,11 +2604,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="46164938"/>
-        <c:axId val="4939871"/>
+        <c:axId val="19966267"/>
+        <c:axId val="86074834"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46164938"/>
+        <c:axId val="19966267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,17 +2631,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -2715,23 +2677,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4939871"/>
+        <c:crossAx val="86074834"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4939871"/>
+        <c:axId val="86074834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,17 +2715,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -2798,18 +2761,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46164938"/>
+        <c:crossAx val="19966267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2834,11 +2796,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="1a1a1a"/>
               </a:solidFill>
-              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
@@ -2875,17 +2836,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -2933,11 +2896,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -2952,15 +2914,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2971,7 +2924,7 @@
             <c:numRef>
               <c:f>pH!$A$2:$A$86</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>1.979592</c:v>
@@ -3235,7 +3188,7 @@
             <c:numRef>
               <c:f>pH!$B$2:$B$86</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0.816327</c:v>
@@ -3497,11 +3450,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="24135276"/>
-        <c:axId val="50360729"/>
+        <c:axId val="96831404"/>
+        <c:axId val="58518046"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24135276"/>
+        <c:axId val="96831404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,17 +3477,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -3568,23 +3523,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50360729"/>
+        <c:crossAx val="58518046"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50360729"/>
+        <c:axId val="58518046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,17 +3561,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -3651,18 +3607,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24135276"/>
+        <c:crossAx val="96831404"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3702,17 +3657,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -3760,11 +3717,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -3779,15 +3735,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4282,11 +4229,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64823756"/>
-        <c:axId val="63872291"/>
+        <c:axId val="14982734"/>
+        <c:axId val="72758686"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64823756"/>
+        <c:axId val="14982734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,17 +4256,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -4353,23 +4302,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63872291"/>
+        <c:crossAx val="72758686"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63872291"/>
+        <c:axId val="72758686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,17 +4340,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -4436,18 +4386,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64823756"/>
+        <c:crossAx val="14982734"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4472,11 +4421,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="1a1a1a"/>
               </a:solidFill>
-              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
@@ -4513,17 +4461,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -4571,11 +4521,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -4590,15 +4539,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5093,11 +5033,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="53243482"/>
-        <c:axId val="8940430"/>
+        <c:axId val="95616505"/>
+        <c:axId val="31514443"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53243482"/>
+        <c:axId val="95616505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,17 +5060,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -5164,23 +5106,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8940430"/>
+        <c:crossAx val="31514443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8940430"/>
+        <c:axId val="31514443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5204,17 +5145,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -5248,18 +5191,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53243482"/>
+        <c:crossAx val="95616505"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5299,17 +5241,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -5357,11 +5301,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -5376,15 +5319,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6161,11 +6095,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="21198945"/>
-        <c:axId val="15399045"/>
+        <c:axId val="60512035"/>
+        <c:axId val="10956298"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21198945"/>
+        <c:axId val="60512035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6189,17 +6123,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -6233,24 +6169,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15399045"/>
+        <c:crossAx val="10956298"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15399045"/>
+        <c:axId val="10956298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6274,17 +6209,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -6318,18 +6255,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21198945"/>
+        <c:crossAx val="60512035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6369,17 +6305,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -6427,11 +6365,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -6446,15 +6383,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6889,11 +6817,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="18743931"/>
-        <c:axId val="8558001"/>
+        <c:axId val="81411190"/>
+        <c:axId val="72077700"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18743931"/>
+        <c:axId val="81411190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6918,17 +6846,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -6962,24 +6892,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8558001"/>
+        <c:crossAx val="72077700"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8558001"/>
+        <c:axId val="72077700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7003,17 +6932,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -7047,18 +6978,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18743931"/>
+        <c:crossAx val="81411190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7083,11 +7013,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="1a1a1a"/>
               </a:solidFill>
-              <a:uFillTx/>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
@@ -7124,32 +7053,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="Symbol"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Symbol"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
-              <a:t>D</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr b="0" lang="en-US" sz="1800" strike="noStrike" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-              </a:rPr>
-              <a:t>T (ºC)</a:t>
+              <a:t>DT (ºC)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7204,11 +7124,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -7223,15 +7142,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7552,11 +7462,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96254051"/>
-        <c:axId val="25133207"/>
+        <c:axId val="97013490"/>
+        <c:axId val="67420478"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96254051"/>
+        <c:axId val="97013490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-5"/>
@@ -7580,17 +7490,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -7624,23 +7536,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25133207"/>
+        <c:crossAx val="67420478"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25133207"/>
+        <c:axId val="67420478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7663,17 +7574,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -7707,18 +7620,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96254051"/>
+        <c:crossAx val="97013490"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7758,17 +7670,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="en-US" sz="1800" strike="noStrike" u="none">
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:rPr>
@@ -7827,11 +7741,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
@@ -7846,15 +7759,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8685,11 +8589,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="92318671"/>
-        <c:axId val="85924849"/>
+        <c:axId val="57819568"/>
+        <c:axId val="70347036"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92318671"/>
+        <c:axId val="57819568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8713,17 +8617,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -8757,24 +8663,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85924849"/>
+        <c:crossAx val="70347036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85924849"/>
+        <c:axId val="70347036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8798,17 +8703,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                     <a:ea typeface="Arial"/>
                   </a:rPr>
@@ -8842,18 +8749,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92318671"/>
+        <c:crossAx val="57819568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8892,9 +8798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8902,8 +8808,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2528640" y="952560"/>
-        <a:ext cx="5714640" cy="3904920"/>
+        <a:off x="2531160" y="952560"/>
+        <a:ext cx="5723280" cy="3904560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8922,7 +8828,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
@@ -8933,8 +8839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5588640" y="4682880"/>
-          <a:ext cx="2511000" cy="605880"/>
+          <a:off x="5596200" y="4682880"/>
+          <a:ext cx="2514600" cy="605880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8951,7 +8857,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr tIns="91440" bIns="91440" anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="91440" bIns="91440" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:p>
@@ -8964,14 +8870,16 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
-              <a:uFillTx/>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Arial"/>
             </a:rPr>
             <a:t>*Se C.F. &gt;10^5, q1 = 3</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
-            <a:uFillTx/>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -8984,8 +8892,7 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
-            <a:uFillTx/>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9007,9 +8914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396000</xdr:colOff>
+      <xdr:colOff>395640</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9017,8 +8924,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2716560" y="12468240"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2720520" y="12468240"/>
+        <a:ext cx="5721840" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9037,9 +8944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9047,8 +8954,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2471400" y="371520"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2473920" y="371520"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9072,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9082,8 +8989,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3440520" y="14135040"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="3444480" y="14135040"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9102,9 +9009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9112,8 +9019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2376000" y="142920"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2378520" y="142920"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9132,9 +9039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9147,13 +9054,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571200" y="2800440"/>
-          <a:ext cx="151920" cy="199800"/>
+          <a:off x="3576240" y="2800440"/>
+          <a:ext cx="151560" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -9175,9 +9081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9185,8 +9091,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2576160" y="114480"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2578680" y="114480"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9210,9 +9116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9220,8 +9126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2595240" y="247680"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2597760" y="247680"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9245,9 +9151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9255,8 +9161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2547720" y="6305400"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2550240" y="6305400"/>
+        <a:ext cx="5723280" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9280,9 +9186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>379440</xdr:colOff>
+      <xdr:colOff>379080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9290,8 +9196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2700000" y="200160"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2703960" y="200160"/>
+        <a:ext cx="5721840" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9315,9 +9221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>417240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9325,8 +9231,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2738160" y="352440"/>
-        <a:ext cx="5714640" cy="3533400"/>
+        <a:off x="2742120" y="352440"/>
+        <a:ext cx="5721840" cy="3533040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9350,9 +9256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
+      <xdr:colOff>297720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9360,8 +9266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3231000" y="476280"/>
-        <a:ext cx="4209480" cy="2876400"/>
+        <a:off x="3234960" y="438840"/>
+        <a:ext cx="4215240" cy="2876040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9374,190 +9280,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285f4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ea4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="fbbc04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34a853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="ff6d01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46bdc6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155cc"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155cc"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10060,7 +9794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10070,7 +9804,7 @@
       <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -14433,7 +14167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14443,7 +14177,7 @@
       <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -15091,7 +14825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15101,7 +14835,7 @@
       <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -16124,7 +15858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16134,7 +15868,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -16701,7 +16435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16711,7 +16445,7 @@
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
@@ -17126,7 +16860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17136,7 +16870,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18231,7 +17965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -18241,13 +17975,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -18616,184 +18350,183 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C23"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
+      <c r="A2" s="10" t="n">
+        <v>1.46479474723749</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>2.996494599548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>13.3550419046602</v>
+      </c>
       <c r="B3" s="11" t="n">
-        <v>1.46479474723749</v>
-      </c>
-      <c r="C3" s="11" t="n">
-        <v>2.996494599548</v>
+        <v>9.72526201533831</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>25.7360451253581</v>
+      </c>
       <c r="B4" s="11" t="n">
-        <v>13.3550419046602</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>9.72526201533831</v>
+        <v>17.2031530810156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>29.18628445346</v>
+      </c>
       <c r="B5" s="11" t="n">
-        <v>25.7360451253581</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>17.2031530810156</v>
+        <v>20.9469919393583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>39.5619139130589</v>
+      </c>
       <c r="B6" s="11" t="n">
-        <v>29.18628445346</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>20.9469919393583</v>
+        <v>29.678464029609</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>48.9286286232851</v>
+      </c>
       <c r="B7" s="11" t="n">
-        <v>39.5619139130589</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>29.678464029609</v>
+        <v>39.6617377533407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>55.8017046566664</v>
+      </c>
       <c r="B8" s="11" t="n">
-        <v>48.9286286232851</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>39.6617377533407</v>
+        <v>49.8994644032811</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>60.2085446360255</v>
+      </c>
       <c r="B9" s="11" t="n">
-        <v>55.8017046566664</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>49.8994644032811</v>
+        <v>57.6415950461751</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>60.6868449616541</v>
+      </c>
       <c r="B10" s="11" t="n">
-        <v>60.2085446360255</v>
-      </c>
-      <c r="C10" s="12" t="n">
-        <v>57.6415950461751</v>
+        <v>59.6407409384508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>66.5684442783679</v>
+      </c>
       <c r="B11" s="11" t="n">
-        <v>60.6868449616541</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>59.6407409384508</v>
+        <v>69.3802380825281</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>74.4379793234755</v>
+      </c>
       <c r="B12" s="11" t="n">
-        <v>66.5684442783679</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>69.3802380825281</v>
+        <v>79.6161853413761</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>79.377924874108</v>
+      </c>
       <c r="B13" s="11" t="n">
-        <v>74.4379793234755</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>79.6161853413761</v>
+        <v>83.8573640100357</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>85.797612057154</v>
+      </c>
       <c r="B14" s="11" t="n">
-        <v>79.377924874108</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>83.8573640100357</v>
+        <v>89.5959002829231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>98.6594067510098</v>
+      </c>
       <c r="B15" s="11" t="n">
-        <v>85.797612057154</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>89.5959002829231</v>
+        <v>98.8229327923984</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>102.144522144522</v>
+      </c>
       <c r="B16" s="11" t="n">
-        <v>98.6594067510098</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>98.8229327923984</v>
+        <v>99.0667093720528</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>117.659388957098</v>
+      </c>
       <c r="B17" s="11" t="n">
-        <v>102.144522144522</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>99.0667093720528</v>
+        <v>92.0390042527446</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>120.671186320041</v>
+      </c>
       <c r="B18" s="11" t="n">
-        <v>117.659388957098</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>92.0390042527446</v>
+        <v>89.783626043168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>134.718767237851</v>
+      </c>
       <c r="B19" s="11" t="n">
-        <v>120.671186320041</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>89.783626043168</v>
+        <v>80.0085410772433</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>138.236267549244</v>
+      </c>
       <c r="B20" s="11" t="n">
-        <v>134.718767237851</v>
-      </c>
-      <c r="C20" s="12" t="n">
-        <v>80.0085410772433</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="n">
-        <v>138.236267549244</v>
-      </c>
-      <c r="C21" s="12" t="n">
         <v>77.0022598266872</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="9"/>
-    </row>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
